--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -49,88 +49,250 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfsdfsdfsdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skdjfksjf skjf hskjfh kjsdh fkjs hkjh fdjksh fkjsdh fkjs dfkjs dfkj sjkd fsjk fkjs fkjs fkjs fjks fjks hfkjs fjks hfjks hfjks hfjks hfjk sfjks fjks hfjks hjkf hsjkfs jk</t>
+    <t xml:space="preserve">Registro de usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación contendrá un formulario que dicho usuario deberá rellenar indicando su nombre, su contraseña y su correo  electrónico, si el usuario existe, se le notificará con un mensaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fácil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuración de correo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el usuario haya completado  el formulario de registro, sin errore, se le enviará un correo electrónico a su cuenta de correo, si no se confirma, no pordrá iniciar sesión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio de sesión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación contendrá un formulario de inicio de sesión, donde el usuario que ya haya sido registrado y confirmado, podrá iniciar sesión en la aplicación, indicando su nombre y su contraseña. Si los datos introducidos son erróneos, se le notificará con un mensaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar sesión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el usuario tenga una sesión inciada, en el menú principal se encontrará un botón que al pulsarlo, provocará el cierre de la sesión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recordar sesión del usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el formulario de inicio de sesión, se dispondrá de una selección donde se indicará si desea mantener la sesión iniciada una vez que cierre la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperación de contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el formulario de inicio de sesión, habrá un enlace donde redireccionará a un formulario donde el usuario debe indicar el correo electrónico de la cuenta que desea recuperar la contraseña. Se le enviará un correo electrónico con un enlace que contendrá un formulario para indicar la nueva contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar perfil de usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada usuario podrá ver su perfil. En él se mostrará tanto los datos personales como los de la cuenta, su imagen de perfil y los equipos creados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar datos de usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dispondrá de una sección donde los usuario podrán modificar su perfil, tanto los datos personales como los de su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imágnes de usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la sección donde los usuarios podrán modificar su perfil, habrá un formulario para la subida de imágenes y poder cambiar la imágen de perfil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por medio de un formulario,  los usuarios autenticados podrán añadir tableros indicando el nombre del tablero, y el equipo en donde se va ha añadir, comprobando que no exista otro ya creado con el mismo nombre. Después de crearlo, nos redireccionará a su contenido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario autenticado podrá modificar un tablero, ya creado de antes, accediendo a su contenido. Podrá modificar su nombre, su color de fondo y en que equipo se encuentra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar tableros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dispondrá de una selección de un botón para eliminar un tablero, dicha selección se encontrará en el contenido del tablero. Al seleccionarlo, nos preguntará si de verdad deseamos borrarlo, en caso afirmativo, se borrará y nos redireccionará a la página principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copiar tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dispondrá de una sección donde permitirá copiar una tablero, y todo su contenido, y añadirlo a un equipo diferenta al equipo donde contiene ese tablero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrarán los tableros creados tanto en el contenido de un equipo, como en la página principal. En la página principal se mostrará los dichos tableros junto con sus equipo al que pertenecen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir equipos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por medio de un formulario, los usuario autenticados podrán crear los distintos equipos para poder guardar en su contenido los diferentes tableros que creen. Se deberá indicar su nombre,  y opcionalmente, una breve descrioción. Se comprobará que no exista otro equipo ya creado con el mismo nombre, en caso afirmativo, se le notificará con un mensaje. Al crearlo, nos redireccionará a su contenido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar equipos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde el contenido del equipo, se dispondrá de un formulario para modificar los datos del equipo, tanto su nombre, su descripción, y la imágen del equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar equipos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde el contenido del equipo, se dispondrá de una selección de un botón para eliminar dicho equipo. Una vez pulsado, se preguntará si desea eliminar el equipo, en caso afirmativo, se eliminará y nos redireccionará a la página principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar equipos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrarán los equipos creados en la página principal, junto con los tableros creados en cada equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir tarjetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro de cada tablero, por medio de un formulario, se podrá añadir tarjetas, indicando su nombre y comprobando que no haya ya otro creado con el mismo nombre, en caso que si, se le notificará con un mensaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar tarjetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá modificar el nombre de dicha tarjeta, que se encuentra creado en el tablero, por medio de un formulario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde la misma tarjeta, contendrá a su lado una selección de botón para eliminar dicha tarjeta. Una vez pulsado, se eliminará dicha tarjeta y nos redireccionará al contenido del tablero donde nos encontramos actualmente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tarjetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrarán las diferentes tarjetas creadas en el tablero, una vez que accedamos al tablero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir contenido en tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá añadir cualquier contenido en una tarjeta, tanto si es texto, enlaces a otras páginas, imágenes, videos, archivos, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar contenido en tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá modificar el contenido de las tarjetas creadas en los tableros, por medio de un formulario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de los campos del formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se validará los campos de los formularios, de manera que se afirme la introducción correcta de los datos.</t>
   </si>
   <si>
     <t xml:space="preserve">Mínimo</t>
   </si>
   <si>
     <t xml:space="preserve">Técnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fácil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdldjflgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdlksdljkfsldjfsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lkcvlkjxcjklcxljkwejlksdfvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfsfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk34jlk4n,lkjlksdflksdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcvxcv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdkfjklsdfjldksf
-- sdlkfjlksdjfldksjflksjfdss
-- slkdjflksjflksjflksjkljfksldjfldks
-sldkjflskdjfdlskjflksdjflkdsjflkjslkfjslkjfdlskjflsjklfdjslkjlskjdflks
-klsdjfkljsdlkfjskldf
-sdklfjklsdjfklsdjflksdjfklsdjkl
-lñklllllllllllllllllllllllqweqweqweqew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difícil</t>
   </si>
 </sst>
 </file>
@@ -140,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +327,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -214,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,6 +421,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -270,19 +444,19 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -311,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="43.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -334,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -345,103 +519,563 @@
         <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D26" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E26" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F26" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G26" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="215">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">R09</t>
   </si>
   <si>
-    <t xml:space="preserve">Imágnes de usuarios.</t>
+    <t xml:space="preserve">Imágenes de usuarios.</t>
   </si>
   <si>
     <t xml:space="preserve">En la sección donde los usuarios podrán modificar su perfil, habrá un formulario para la subida de imágenes y poder cambiar la imágen de perfil.</t>
@@ -283,7 +283,16 @@
     <t xml:space="preserve">R25</t>
   </si>
   <si>
-    <t xml:space="preserve">Validación de los campos del formulario</t>
+    <t xml:space="preserve">Eliminar contenido de tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá eliminar el contenido que tenga la tarjeta por medio de una selección de un botón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de los campos del formulario.</t>
   </si>
   <si>
     <t xml:space="preserve">Se validará los campos de los formularios, de manera que se afirme la introducción correcta de los datos.</t>
@@ -293,6 +302,369 @@
   </si>
   <si>
     <t xml:space="preserve">Técnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar contenido de la tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrará, sobre la tarjeta, el contenido que el usuario haya añadido en ella.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir miembros a un tablero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En en contenido del tablero, habrá una sección que, por medio de un formulario, se buscará a otro usuario, que esté registrado en la aplicación. Se deberá indicar el nombre de usuario o su dirección de correo electrónico, el mismo que uso para registrarse. Una vez buscado, se añadirá dicho usuario al tablero, de manera que podrá śolo ver su contenido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver tableros de otros usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde la página principal, se podrá ver los tableros de otros usuarios, que han añadido al usuario como miembro. Se mostrarán junto al equipo al que pertenece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda de tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde la página principal, habrá una sección donde, por medio de un formulario, se podrá buscar los tableros que el usuario tenga creado, indicando su nombre. En el caso de que no se encuentre el tablero a buscar, se le dará la posibilidad de crear un tablero nuevo con el nombre que se ha indicado en la búsqueda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar tableros favoritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá indicar un tablero como favorito, de manera que desde la página principal, a la hora de mostrar todos los tableros creados, se mostrarán los tableros marcados como favoritos, al comienzo de la página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar tablero a otro equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tendrá la disponibilidad de poder enviar tableros a otros equipos y dejando de existir en el equipo actual, por medio de un formulario, indicando al equipo donde se quiere enviar dicho tablero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de la apariencia de las ventanas, creación de nuevas ventanas y comunicación entre ventanas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de Eventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactividad a través de mecanismos de manejo de eventos intuitivos y eficaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación  del DOM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación de las características del modelo de objetos del documento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenamiento en el lado del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de almacenamiento en el lado del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JQUERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de la librería de JQUERY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin de JQUERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir al menos un plugin no trabajado en clase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de comunicación asíncrona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso del lenguaje de programación PHP 7.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso del Framework Yii2 versión 2.0.1.0 ó superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Gestión de Bases de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgresSQL versión 9.6 o superior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en la plataforma Heroku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas funcionales con Codeception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo y mantenimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo y mantenibilidad del código fuente con CodeClimate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debe ser escalable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debe hacer uso de la tecnología AJAX en algún momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de etiquetas semánticas de HTML 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo lo relacionado con la presentación, se trabajará mediante CSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diseño será flexible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existirán transacciones, transformaciones, animaciones y contenido multimedia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de microdatos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se deberá comprobar que el código supera el validador para HTML 5, CSS 3, Nivel de accesibilidad AA y prueba del seis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolución.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar el diseño para resoluciones grandes y pequeñas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El diseño debe ser correcto en los navegadores Internet Explorer, Chrome, Mozilla Firefox y Opera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar el despligue en un host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usando un servicio gratuito de hosting e instalar y configurar el software necesario para desplegar el proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar el despliegue en un servidor local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se usarán tres máquinas virtuales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de permisos de usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tendrá la posibilidad de dar diferentes tipos de permisos a los usuarios añadidos como miembros del tablero. Dichos permisos son para sólo poder ver el contenido del tablero, modificar el contenido del tablero, eliminar el tablero o su contenido y añadir comentario en tarjetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda de usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde la página principal, habrá una sección donde permita, mediante un formulario, buscar un usuario a partir de su nombre o correo electrónico, el mismo que se uso para registrarse. Una ve encontrado, podremos acceder a su perfil y ver sus tableros y sus contenido. En caso de no existir el usuario, se le notificará con un mensaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de permisos de tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde el contenido del tablero, habrá una sección en la cual se podrá añadir una serie de permisos sobre los tableros. Pivado, sólo visible por los miembros y propietario del tablero y  Público, visible por cualquier usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar u ocultar tarjetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde el contenido de las tarjetas de los tableros, se podrá configurar para que esa tarjeta pueda estar oculta y sólo visible por el propietario del tablero. Los miembros del tablero no podrán verla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personalizar tableros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tendrá la oportunidad de añadir imágen de fondo del tablero, esta imágen se subirá a la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el contenido del tablero se mostrará notificaciones sobre acciones que se han realizado en el tablero como añadir una tarjeta, modificar una tarjeta, o eliminar tarjeta. Se mostrará el usuario miembro que ha realizado la acción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar mensajes privados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada usuario podrá enviar mensajes privados a otros usuarios, indicando el contenido y el nombre o correo electrónico del usuario al que se mandará el mensaje, por medio de un formulario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar mensajes privados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habrá una sección donde se muestren los mensajes privados recibidos de otros usuarios registrados en la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar mensajes privados recibidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá borrar los mensajes privados recibidos de otros usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir comentarios en tarjetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el contenido de cada tarjeta se podrá añadir comentarios por los usuarios miembros del tablero.</t>
   </si>
 </sst>
 </file>
@@ -442,21 +814,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1048,34 +1420,853 @@
         <v>88</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D26" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D68" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E26" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E68" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F26" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F41 F59:F68" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G26" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G40 G59:G68" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="251">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Configuración de correo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuando el usuario haya completado  el formulario de registro, sin errore, se le enviará un correo electrónico a su cuenta de correo, si no se confirma, no pordrá iniciar sesión.</t>
+    <t xml:space="preserve">Cuando el usuario haya completado  el formulario de registro, sin errores, se le enviará un correo electrónico a su cuenta de correo, si no se confirma, no pordrá iniciar sesión.</t>
   </si>
   <si>
     <t xml:space="preserve">R03</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Mostrar tableros.</t>
   </si>
   <si>
-    <t xml:space="preserve">Se mostrarán los tableros creados tanto en el contenido de un equipo, como en la página principal. En la página principal se mostrará los dichos tableros junto con sus equipo al que pertenecen.</t>
+    <t xml:space="preserve">Se mostrarán los tableros creados tanto en el contenido de un equipo, como en la página principal. En la página principal se mostrará dichos tableros junto con sus equipo al que pertenecen.</t>
   </si>
   <si>
     <t xml:space="preserve">R15</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">Añadir equipos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Por medio de un formulario, los usuario autenticados podrán crear los distintos equipos para poder guardar en su contenido los diferentes tableros que creen. Se deberá indicar su nombre,  y opcionalmente, una breve descrioción. Se comprobará que no exista otro equipo ya creado con el mismo nombre, en caso afirmativo, se le notificará con un mensaje. Al crearlo, nos redireccionará a su contenido.</t>
+    <t xml:space="preserve">Por medio de un formulario, los usuario autenticados podrán crear los distintos equipos para poder guardar en su contenido los diferentes tableros que creen. Se deberá indicar su nombre,  y opcionalmente, una breve descripción. Se comprobará que no exista otro equipo ya creado con el mismo nombre, en caso afirmativo, se le notificará con un mensaje. Al crearlo, nos redireccionará a su contenido.</t>
   </si>
   <si>
     <t xml:space="preserve">R16</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">Añadir miembros a un tablero.</t>
   </si>
   <si>
-    <t xml:space="preserve">En en contenido del tablero, habrá una sección que, por medio de un formulario, se buscará a otro usuario, que esté registrado en la aplicación. Se deberá indicar el nombre de usuario o su dirección de correo electrónico, el mismo que uso para registrarse. Una vez buscado, se añadirá dicho usuario al tablero, de manera que podrá śolo ver su contenido.</t>
+    <t xml:space="preserve">En el contenido del tablero, habrá una sección que, por medio de un formulario, se buscará a otro usuario, que esté registrado en la aplicación. Se deberá indicar el nombre de usuario o su dirección de correo electrónico, el mismo que uso para registrarse. Una vez buscado, se añadirá dicho usuario al tablero, de manera que podrá śolo ver su contenido y añadir comentarios en las tarjetas.</t>
   </si>
   <si>
     <t xml:space="preserve">v2</t>
@@ -346,13 +346,31 @@
     <t xml:space="preserve">R31</t>
   </si>
   <si>
+    <t xml:space="preserve">Añadir tablero como favorito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dará la posibilidad de añadir un tablero como tableros favoritos. Se refiere a los que más se accedan y se marcan como favoritos. Se podrá desde el contenido del tablero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quitar tablero como favorito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediante una selección, se podrá desactivar un tablero como favorito, de manera que no aparecerá como tablero favorito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mostrar tableros favoritos</t>
   </si>
   <si>
     <t xml:space="preserve">Se podrá indicar un tablero como favorito, de manera que desde la página principal, a la hora de mostrar todos los tableros creados, se mostrarán los tableros marcados como favoritos, al comienzo de la página.</t>
   </si>
   <si>
-    <t xml:space="preserve">R32</t>
+    <t xml:space="preserve">R34</t>
   </si>
   <si>
     <t xml:space="preserve">Enviar tablero a otro equipo</t>
@@ -361,7 +379,7 @@
     <t xml:space="preserve">Se tendrá la disponibilidad de poder enviar tableros a otros equipos y dejando de existir en el equipo actual, por medio de un formulario, indicando al equipo donde se quiere enviar dicho tablero.</t>
   </si>
   <si>
-    <t xml:space="preserve">R33</t>
+    <t xml:space="preserve">R35</t>
   </si>
   <si>
     <t xml:space="preserve">Gestión de ventanas.</t>
@@ -370,7 +388,7 @@
     <t xml:space="preserve">Gestión de la apariencia de las ventanas, creación de nuevas ventanas y comunicación entre ventanas.</t>
   </si>
   <si>
-    <t xml:space="preserve">R34</t>
+    <t xml:space="preserve">R36</t>
   </si>
   <si>
     <t xml:space="preserve">Gestión de Eventos.</t>
@@ -379,7 +397,7 @@
     <t xml:space="preserve">Interactividad a través de mecanismos de manejo de eventos intuitivos y eficaces.</t>
   </si>
   <si>
-    <t xml:space="preserve">R35</t>
+    <t xml:space="preserve">R37</t>
   </si>
   <si>
     <t xml:space="preserve">Uso y manipulación  del DOM.</t>
@@ -388,7 +406,7 @@
     <t xml:space="preserve">Uso y manipulación de las características del modelo de objetos del documento.</t>
   </si>
   <si>
-    <t xml:space="preserve">R36</t>
+    <t xml:space="preserve">R38</t>
   </si>
   <si>
     <t xml:space="preserve">Almacenamiento en el lado del cliente.</t>
@@ -397,7 +415,7 @@
     <t xml:space="preserve">Uso de mecanismos de almacenamiento en el lado del cliente.</t>
   </si>
   <si>
-    <t xml:space="preserve">R37</t>
+    <t xml:space="preserve">R39</t>
   </si>
   <si>
     <t xml:space="preserve">JQUERY</t>
@@ -406,7 +424,7 @@
     <t xml:space="preserve">Uso de la librería de JQUERY.</t>
   </si>
   <si>
-    <t xml:space="preserve">R38</t>
+    <t xml:space="preserve">R40</t>
   </si>
   <si>
     <t xml:space="preserve">Plugin de JQUERY</t>
@@ -415,7 +433,7 @@
     <t xml:space="preserve">Incluir al menos un plugin no trabajado en clase.</t>
   </si>
   <si>
-    <t xml:space="preserve">R39</t>
+    <t xml:space="preserve">R41</t>
   </si>
   <si>
     <t xml:space="preserve">AJAX</t>
@@ -424,7 +442,7 @@
     <t xml:space="preserve">Uso de mecanismos de comunicación asíncrona.</t>
   </si>
   <si>
-    <t xml:space="preserve">R40</t>
+    <t xml:space="preserve">R42</t>
   </si>
   <si>
     <t xml:space="preserve">PHP 7.1</t>
@@ -433,7 +451,7 @@
     <t xml:space="preserve">Uso del lenguaje de programación PHP 7.1.</t>
   </si>
   <si>
-    <t xml:space="preserve">R41</t>
+    <t xml:space="preserve">R43</t>
   </si>
   <si>
     <t xml:space="preserve">Framework</t>
@@ -442,7 +460,7 @@
     <t xml:space="preserve">Uso del Framework Yii2 versión 2.0.1.0 ó superior.</t>
   </si>
   <si>
-    <t xml:space="preserve">R42</t>
+    <t xml:space="preserve">R44</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema de Gestión de Bases de datos.</t>
@@ -451,7 +469,7 @@
     <t xml:space="preserve">PostgresSQL versión 9.6 o superior.</t>
   </si>
   <si>
-    <t xml:space="preserve">R43</t>
+    <t xml:space="preserve">R45</t>
   </si>
   <si>
     <t xml:space="preserve">Despliegue</t>
@@ -460,7 +478,7 @@
     <t xml:space="preserve">Despliegue en la plataforma Heroku.</t>
   </si>
   <si>
-    <t xml:space="preserve">R44</t>
+    <t xml:space="preserve">R46</t>
   </si>
   <si>
     <t xml:space="preserve">Pruebas</t>
@@ -469,7 +487,7 @@
     <t xml:space="preserve">Pruebas funcionales con Codeception</t>
   </si>
   <si>
-    <t xml:space="preserve">R45</t>
+    <t xml:space="preserve">R47</t>
   </si>
   <si>
     <t xml:space="preserve">Estilo y mantenimiento</t>
@@ -478,7 +496,7 @@
     <t xml:space="preserve">Estilo y mantenibilidad del código fuente con CodeClimate.</t>
   </si>
   <si>
-    <t xml:space="preserve">R46</t>
+    <t xml:space="preserve">R48</t>
   </si>
   <si>
     <t xml:space="preserve">Aplicación.</t>
@@ -487,13 +505,13 @@
     <t xml:space="preserve">La aplicación debe ser escalable.</t>
   </si>
   <si>
-    <t xml:space="preserve">R47</t>
+    <t xml:space="preserve">R49</t>
   </si>
   <si>
     <t xml:space="preserve">La aplicación debe hacer uso de la tecnología AJAX en algún momento.</t>
   </si>
   <si>
-    <t xml:space="preserve">R48</t>
+    <t xml:space="preserve">R50</t>
   </si>
   <si>
     <t xml:space="preserve">Contenido.</t>
@@ -502,7 +520,7 @@
     <t xml:space="preserve">Uso de etiquetas semánticas de HTML 5.</t>
   </si>
   <si>
-    <t xml:space="preserve">R49</t>
+    <t xml:space="preserve">R51</t>
   </si>
   <si>
     <t xml:space="preserve">Diseño.</t>
@@ -511,31 +529,31 @@
     <t xml:space="preserve">Todo lo relacionado con la presentación, se trabajará mediante CSS.</t>
   </si>
   <si>
-    <t xml:space="preserve">R50</t>
+    <t xml:space="preserve">R52</t>
   </si>
   <si>
     <t xml:space="preserve">El diseño será flexible.</t>
   </si>
   <si>
-    <t xml:space="preserve">R51</t>
+    <t xml:space="preserve">R53</t>
   </si>
   <si>
     <t xml:space="preserve">Existirán transacciones, transformaciones, animaciones y contenido multimedia.</t>
   </si>
   <si>
-    <t xml:space="preserve">R52</t>
+    <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de microdatos.</t>
   </si>
   <si>
-    <t xml:space="preserve">R53</t>
+    <t xml:space="preserve">R55</t>
   </si>
   <si>
     <t xml:space="preserve">Se deberá comprobar que el código supera el validador para HTML 5, CSS 3, Nivel de accesibilidad AA y prueba del seis.</t>
   </si>
   <si>
-    <t xml:space="preserve">R54</t>
+    <t xml:space="preserve">R56</t>
   </si>
   <si>
     <t xml:space="preserve">Resolución.</t>
@@ -544,7 +562,7 @@
     <t xml:space="preserve">Implementar el diseño para resoluciones grandes y pequeñas.</t>
   </si>
   <si>
-    <t xml:space="preserve">R55</t>
+    <t xml:space="preserve">R57</t>
   </si>
   <si>
     <t xml:space="preserve">Navegadores.</t>
@@ -553,7 +571,7 @@
     <t xml:space="preserve">El diseño debe ser correcto en los navegadores Internet Explorer, Chrome, Mozilla Firefox y Opera.</t>
   </si>
   <si>
-    <t xml:space="preserve">R56</t>
+    <t xml:space="preserve">R58</t>
   </si>
   <si>
     <t xml:space="preserve">Realizar el despligue en un host</t>
@@ -562,7 +580,7 @@
     <t xml:space="preserve">Usando un servicio gratuito de hosting e instalar y configurar el software necesario para desplegar el proyecto.</t>
   </si>
   <si>
-    <t xml:space="preserve">R57</t>
+    <t xml:space="preserve">R59</t>
   </si>
   <si>
     <t xml:space="preserve">Realizar el despliegue en un servidor local.</t>
@@ -571,16 +589,16 @@
     <t xml:space="preserve">Se usarán tres máquinas virtuales.</t>
   </si>
   <si>
-    <t xml:space="preserve">R58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestión de permisos de usuarios.</t>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de permisos de usuarios </t>
   </si>
   <si>
     <t xml:space="preserve">Se tendrá la posibilidad de dar diferentes tipos de permisos a los usuarios añadidos como miembros del tablero. Dichos permisos son para sólo poder ver el contenido del tablero, modificar el contenido del tablero, eliminar el tablero o su contenido y añadir comentario en tarjetas.</t>
   </si>
   <si>
-    <t xml:space="preserve">R59</t>
+    <t xml:space="preserve">R61</t>
   </si>
   <si>
     <t xml:space="preserve">Búsqueda de usuarios.</t>
@@ -589,7 +607,7 @@
     <t xml:space="preserve">Desde la página principal, habrá una sección donde permita, mediante un formulario, buscar un usuario a partir de su nombre o correo electrónico, el mismo que se uso para registrarse. Una ve encontrado, podremos acceder a su perfil y ver sus tableros y sus contenido. En caso de no existir el usuario, se le notificará con un mensaje.</t>
   </si>
   <si>
-    <t xml:space="preserve">R60</t>
+    <t xml:space="preserve">R62</t>
   </si>
   <si>
     <t xml:space="preserve">Gestión de permisos de tableros.</t>
@@ -598,7 +616,7 @@
     <t xml:space="preserve">Desde el contenido del tablero, habrá una sección en la cual se podrá añadir una serie de permisos sobre los tableros. Pivado, sólo visible por los miembros y propietario del tablero y  Público, visible por cualquier usuario </t>
   </si>
   <si>
-    <t xml:space="preserve">R61</t>
+    <t xml:space="preserve">R63</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar u ocultar tarjetas.</t>
@@ -610,7 +628,7 @@
     <t xml:space="preserve">Difícil</t>
   </si>
   <si>
-    <t xml:space="preserve">R62</t>
+    <t xml:space="preserve">R64</t>
   </si>
   <si>
     <t xml:space="preserve">Personalizar tableros.</t>
@@ -619,7 +637,7 @@
     <t xml:space="preserve">Se tendrá la oportunidad de añadir imágen de fondo del tablero, esta imágen se subirá a la aplicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">R63</t>
+    <t xml:space="preserve">R65</t>
   </si>
   <si>
     <t xml:space="preserve">Añadir notificaciones</t>
@@ -628,7 +646,7 @@
     <t xml:space="preserve">En el contenido del tablero se mostrará notificaciones sobre acciones que se han realizado en el tablero como añadir una tarjeta, modificar una tarjeta, o eliminar tarjeta. Se mostrará el usuario miembro que ha realizado la acción.</t>
   </si>
   <si>
-    <t xml:space="preserve">R64</t>
+    <t xml:space="preserve">R66</t>
   </si>
   <si>
     <t xml:space="preserve">Enviar mensajes privados</t>
@@ -640,7 +658,7 @@
     <t xml:space="preserve">v3</t>
   </si>
   <si>
-    <t xml:space="preserve">R65</t>
+    <t xml:space="preserve">R67</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar mensajes privados</t>
@@ -649,7 +667,7 @@
     <t xml:space="preserve">Habrá una sección donde se muestren los mensajes privados recibidos de otros usuarios registrados en la aplicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">R66</t>
+    <t xml:space="preserve">R68</t>
   </si>
   <si>
     <t xml:space="preserve">Borrar mensajes privados recibidos</t>
@@ -658,13 +676,103 @@
     <t xml:space="preserve">Se podrá borrar los mensajes privados recibidos de otros usuarios.</t>
   </si>
   <si>
-    <t xml:space="preserve">R67</t>
+    <t xml:space="preserve">R69</t>
   </si>
   <si>
     <t xml:space="preserve">Añadir comentarios en tarjetas</t>
   </si>
   <si>
     <t xml:space="preserve">En el contenido de cada tarjeta se podrá añadir comentarios por los usuarios miembros del tablero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar comentarios en tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dará la posibilidad de porder eliminar comentarios, añadidos anteriormente, en las tarjetas. Sólo tendrán permiso de eliminarlo el propietario del tablero o el propietario del comentario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar comentarios en tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario miembro podrá modificar un comentario que haya sido añadido a una tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar comentarios en tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el contenido de la tarjeta, se mostrarán los comentarios añadidos, junto con información del usuario miembro que ha añadido el comentario. También se mostrará en que instante de fecha y hora se añadió el comentario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir en tarjeta un mapa de una ubicación de algún lugar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dará la posibilidad de añadir, como contenido de una tarjeta, un mapa con una ubicación establecida desde la API de Google Maps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartir tarjetas desde Whatsapp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se permitirá poder compartir el contenido de una tarjetas, desde dispositivos que tengan instalado la aplicación de Whatsapp. Como móviles, tablets, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjuntar enlaces de archivos guardados en Dropbox.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se permitira la posibilidad de poder adjuntar, en el contenido de la tarjeta, enlaces que referenciarán a archivos guardados en Dropbox.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autenticación desde una cuenta de Google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se permitirá acceder a nuestra cuenta de usuario con una cuenta de google.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartir contenidos de tarjetas por redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se permitirá poder compartir contenidos de tarjetas por redes sociales como Facebook, Twitter, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir “Me gusta”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se permitirá a los usuarios miembros del tablero, porder indicar si les gusta o no el contenido de una tarjeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir cita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dará la posibilidad de poder añadir un instante de tiempo en una tarjeta, de manera que cuando llegue ese instante de tiempo, se le avise al usuario con un mensaje de recordatorio. Por ejemplo, avisarte que en pocos días tienes una cita con el médico.</t>
   </si>
 </sst>
 </file>
@@ -674,7 +782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -699,14 +807,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -756,7 +856,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -793,10 +893,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -814,10 +910,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -826,7 +922,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1122448979592"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.1071428571429"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.5918367346939"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.2602040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.2602040816327"/>
   </cols>
@@ -880,7 +976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="34.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -922,7 +1018,7 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1478,7 +1574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -1547,7 +1643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -1570,7 +1666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -1593,7 +1689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -1604,15 +1700,19 @@
         <v>115</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -1623,15 +1723,19 @@
         <v>118</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
@@ -1650,7 +1754,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>122</v>
       </c>
@@ -1669,7 +1773,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
@@ -1688,7 +1792,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
@@ -1743,6 +1847,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -1760,8 +1865,10 @@
       <c r="E42" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>140</v>
       </c>
@@ -1777,6 +1884,7 @@
       <c r="E43" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -1795,7 +1903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>146</v>
       </c>
@@ -1846,13 +1954,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="C48" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D48" s="8" t="s">
         <v>92</v>
       </c>
@@ -1862,13 +1973,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>92</v>
@@ -1877,14 +1988,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -1901,6 +2009,9 @@
       <c r="B51" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="C51" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D51" s="8" t="s">
         <v>92</v>
       </c>
@@ -1908,12 +2019,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>92</v>
@@ -1924,10 +2038,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>92</v>
@@ -1936,15 +2050,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>92</v>
@@ -1955,13 +2066,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>92</v>
@@ -1970,12 +2078,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>176</v>
@@ -1987,7 +2095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
@@ -2004,7 +2112,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>180</v>
       </c>
@@ -2021,7 +2129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>183</v>
       </c>
@@ -2032,20 +2140,13 @@
         <v>185</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>186</v>
       </c>
@@ -2056,19 +2157,13 @@
         <v>188</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>189</v>
       </c>
@@ -2090,8 +2185,9 @@
       <c r="G61" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>192</v>
       </c>
@@ -2102,30 +2198,30 @@
         <v>194</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>12</v>
@@ -2139,28 +2235,28 @@
     </row>
     <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>202</v>
       </c>
@@ -2171,7 +2267,7 @@
         <v>204</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>12</v>
@@ -2180,18 +2276,18 @@
         <v>52</v>
       </c>
       <c r="G65" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>11</v>
@@ -2203,18 +2299,18 @@
         <v>52</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>11</v>
@@ -2226,7 +2322,7 @@
         <v>52</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,24 +2345,300 @@
         <v>52</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>205</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D68" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D80" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E68" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E80" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F41 F59:F68" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F43 F61:F80" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G40 G59:G68" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G42 G61:G80" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
